--- a/DATA_goal/Junction_Flooding_452.xlsx
+++ b/DATA_goal/Junction_Flooding_452.xlsx
@@ -655,103 +655,103 @@
         <v>44783.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.61</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.49</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>20.09</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.25</v>
       </c>
-      <c r="F2" s="4" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>2.01</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.15</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.45</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.14</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44783.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.380000000000001</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.51</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.43</v>
+        <v>14.34</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.25</v>
+        <v>12.53</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.15</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.93</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.8</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.38</v>
+        <v>3.82</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.6</v>
+        <v>5.95</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.18</v>
+        <v>1.82</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.13</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.84</v>
+        <v>8.4</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.81</v>
+        <v>78.06</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.56</v>
+        <v>15.57</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.55</v>
+        <v>5.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.07</v>
+        <v>10.73</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.23</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.74</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.16</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.51</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.69</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.45</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.72</v>
+        <v>7.21</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.11</v>
+        <v>1.13</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.34</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.27</v>
+        <v>2.67</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44783.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.25</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.68</v>
+        <v>16.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.85</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.48</v>
+        <v>4.84</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.39</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.44</v>
+        <v>4.38</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.13</v>
+        <v>1.34</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.38</v>
+        <v>3.81</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.62</v>
+        <v>6.24</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.33</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.06</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>5.54</v>
+        <v>55.37</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>1.16</v>
+        <v>11.62</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.54</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.83</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.33</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.33</v>
+        <v>3.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.5</v>
+        <v>15.02</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.97</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
     </row>
     <row r="5">
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>0.32</v>
+        <v>3.18</v>
       </c>
       <c r="I5" s="4" t="n">
         <v>0</v>
@@ -1024,13 +1024,13 @@
         <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.13</v>
       </c>
       <c r="V5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>0</v>
@@ -1039,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.26</v>
       </c>
       <c r="AA5" s="4" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>0</v>

--- a/DATA_goal/Junction_Flooding_452.xlsx
+++ b/DATA_goal/Junction_Flooding_452.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44783.54861111111</v>
+        <v>45133.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.24</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.61</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.48</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.05</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.52</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.49</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.55</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.02</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.07</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.75</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.11</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.06</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.09</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.8</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.37</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.89</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.03</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.15</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.67</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.13</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.87</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.13</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.45</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44783.55555555555</v>
+        <v>45133.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.380000000000001</v>
+        <v>22.949</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.51</v>
+        <v>16.738</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.08</v>
+        <v>1.98</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.34</v>
+        <v>50.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.53</v>
+        <v>40.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.15</v>
+        <v>17.938</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.93</v>
+        <v>67.355</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.029999999999999</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.82</v>
+        <v>12.189</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.74</v>
+        <v>17.951</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.89</v>
+        <v>20.031</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.95</v>
+        <v>21.301</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.82</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.13</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.4</v>
+        <v>25.513</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.41</v>
+        <v>15.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.43</v>
+        <v>1.506</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.12</v>
+        <v>1.215</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.06</v>
+        <v>267.368</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.57</v>
+        <v>50.439</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.54</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.73</v>
+        <v>33.575</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.23</v>
+        <v>17.551</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.74</v>
+        <v>2.987</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.16</v>
+        <v>33.521</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.51</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.69</v>
+        <v>13.16</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.45</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.21</v>
+        <v>20.882</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.13</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.34</v>
+        <v>61.623</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.67</v>
+        <v>9.279</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.16</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44783.5625</v>
+        <v>45133.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.02</v>
+        <v>21.524</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.08</v>
+        <v>15.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>1.475</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.61</v>
+        <v>47.041</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.25</v>
+        <v>38.053</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.52</v>
+        <v>16.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.78</v>
+        <v>66.61</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.91</v>
+        <v>26.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.85</v>
+        <v>11.54</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.84</v>
+        <v>17.004</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.39</v>
+        <v>18.831</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.38</v>
+        <v>20.022</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.34</v>
+        <v>5.435</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.81</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.24</v>
+        <v>24.007</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.24</v>
+        <v>14.384</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.33</v>
+        <v>1.039</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.06</v>
+        <v>0.965</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.37</v>
+        <v>250.207</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.62</v>
+        <v>47.339</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.04</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.97</v>
+        <v>31.662</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.89</v>
+        <v>16.577</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.54</v>
+        <v>2.629</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>32.357</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.33</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.73</v>
+        <v>12.285</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.28</v>
+        <v>14.454</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.27</v>
+        <v>19.688</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.02</v>
+        <v>60.737</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.97</v>
+        <v>8.741</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.54</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44783.56944444445</v>
+        <v>45133.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>35.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>12.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.18</v>
+        <v>51.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>12.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>18.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.13</v>
+        <v>35.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.12</v>
+        <v>23.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.26</v>
+        <v>24.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>14.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.38</v>
+        <v>47.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44783.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>199.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.58</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_452.xlsx
+++ b/DATA_goal/Junction_Flooding_452.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
-    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="8" customWidth="1" min="12" max="12"/>
-    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="8" customWidth="1" min="15" max="15"/>
-    <col width="8" customWidth="1" min="16" max="16"/>
-    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
-    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="26" max="26"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="8" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45133.50694444445</v>
+        <v>44783.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>13.798</v>
+        <v>5.237</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>9.137</v>
+        <v>1.607</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>3.527</v>
+        <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>29.879</v>
+        <v>2.478</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>22.444</v>
+        <v>3.053</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>10.657</v>
+        <v>2.519</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>31.967</v>
+        <v>5.488</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>16.87</v>
+        <v>1.554</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>6.742</v>
+        <v>0.9409999999999999</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>10.011</v>
+        <v>4.022</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>11.733</v>
+        <v>1.069</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>12.516</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>3.497</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>10.903</v>
+        <v>0.87</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>14.966</v>
+        <v>2.749</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>9.704000000000001</v>
+        <v>1.106</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.059</v>
+        <v>0.51</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>1.672</v>
+        <v>0.063</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>158.575</v>
+        <v>20.094</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>30.182</v>
+        <v>4.803</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>10.064</v>
+        <v>2.372</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>19.331</v>
+        <v>3.891</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>9.888999999999999</v>
+        <v>1.034</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.87</v>
+        <v>0.249</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>17.102</v>
+        <v>1.98</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>8.888999999999999</v>
+        <v>1.154</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>8.15</v>
+        <v>0.674</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>9.673999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>12.058</v>
+        <v>3.129</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.072</v>
+        <v>2.866</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>28.934</v>
+        <v>3.128</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>5.407</v>
+        <v>0.446</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>12.581</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45133.51388888889</v>
+        <v>44783.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.949</v>
+        <v>8.378</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>16.738</v>
+        <v>5.509</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.98</v>
+        <v>0.079</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>50.14</v>
+        <v>14.339</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.24</v>
+        <v>12.533</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.938</v>
+        <v>6.151</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>67.355</v>
+        <v>17.934</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>27.923</v>
+        <v>8.029</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.189</v>
+        <v>3.822</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.951</v>
+        <v>6.739</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.031</v>
+        <v>5.887</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.301</v>
+        <v>5.954</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.797</v>
+        <v>1.822</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.046</v>
+        <v>5.133</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.513</v>
+        <v>8.395</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>15.45</v>
+        <v>4.409</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.506</v>
+        <v>0.432</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.215</v>
+        <v>0.119</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>267.368</v>
+        <v>78.056</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>50.439</v>
+        <v>15.571</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.657</v>
+        <v>5.54</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.575</v>
+        <v>10.726</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.551</v>
+        <v>5.228</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.987</v>
+        <v>0.74</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>33.521</v>
+        <v>9.162000000000001</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.713</v>
+        <v>4.507</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>13.16</v>
+        <v>3.691</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>15.5</v>
+        <v>4.446</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.882</v>
+        <v>7.214</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.198</v>
+        <v>1.133</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>61.623</v>
+        <v>15.336</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.279</v>
+        <v>2.672</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.825</v>
+        <v>6.159</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45133.52083333334</v>
+        <v>44783.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.524</v>
+        <v>6.022</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.88</v>
+        <v>4.08</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.475</v>
+        <v>0.035</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>47.041</v>
+        <v>10.609</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>38.053</v>
+        <v>9.247999999999999</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.855</v>
+        <v>4.515</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>66.61</v>
+        <v>16.78</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>26.178</v>
+        <v>5.909</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.54</v>
+        <v>2.854</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>17.004</v>
+        <v>4.845</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.831</v>
+        <v>4.388</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>20.022</v>
+        <v>4.384</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.435</v>
+        <v>1.336</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.918</v>
+        <v>3.806</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>24.007</v>
+        <v>6.244</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>14.384</v>
+        <v>3.238</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.039</v>
+        <v>0.333</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.965</v>
+        <v>0.063</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>250.207</v>
+        <v>55.369</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>47.339</v>
+        <v>11.617</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.616</v>
+        <v>4.04</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>31.662</v>
+        <v>7.971</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.577</v>
+        <v>3.886</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.629</v>
+        <v>0.542</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>32.357</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.794</v>
+        <v>3.332</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.285</v>
+        <v>2.731</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.454</v>
+        <v>3.28</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.688</v>
+        <v>5.268</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.746</v>
+        <v>0.716</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>60.737</v>
+        <v>15.016</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.741</v>
+        <v>1.973</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.524</v>
+        <v>4.545</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45133.52777777778</v>
+        <v>44783.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>3.183</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="V5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="X5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="Z5" s="4" t="n">
+        <v>1.258</v>
+      </c>
+      <c r="AA5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>3.383</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44783.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>17.29</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>37.71</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>31.61</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>14.48</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>45.66</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>9.27</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>14.11</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>15.17</v>
+      </c>
+      <c r="M6" s="4" t="n">
         <v>16.25</v>
       </c>
-      <c r="C5" s="4" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="D5" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="E5" s="4" t="n">
-        <v>35.55</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>28.75</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>51.67</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>19.78</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>12.83</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>14.24</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>15.15</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>12.78</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>18.14</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="T5" s="4" t="n">
-        <v>187.25</v>
-      </c>
-      <c r="U5" s="4" t="n">
-        <v>35.8</v>
-      </c>
-      <c r="V5" s="4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="W5" s="4" t="n">
-        <v>23.94</v>
-      </c>
-      <c r="X5" s="4" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="Y5" s="4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="Z5" s="4" t="n">
-        <v>24.83</v>
-      </c>
-      <c r="AA5" s="4" t="n">
-        <v>10.42</v>
-      </c>
-      <c r="AB5" s="4" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="AC5" s="4" t="n">
-        <v>10.92</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>14.89</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.54</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>47.09</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>14.75</v>
+      <c r="N6" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>13.54</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>19.13</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>199.27</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>13.35</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.74</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>11.03</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>11.39</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>40.67</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>15.58</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_452.xlsx
+++ b/DATA_goal/Junction_Flooding_452.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
     <col width="7" customWidth="1" min="4" max="4"/>
     <col width="8" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
     <col width="7" customWidth="1" min="18" max="18"/>
     <col width="7" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
     <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44783.54861111111</v>
+        <v>45133.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>5.237</v>
+        <v>13.798</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.607</v>
+        <v>9.137</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>3.527</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>2.478</v>
+        <v>29.879</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.053</v>
+        <v>22.444</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.519</v>
+        <v>10.657</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.488</v>
+        <v>31.967</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.554</v>
+        <v>16.87</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.9409999999999999</v>
+        <v>6.742</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>4.022</v>
+        <v>10.011</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.069</v>
+        <v>11.733</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.9379999999999999</v>
+        <v>12.516</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.6929999999999999</v>
+        <v>3.497</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.87</v>
+        <v>10.903</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.749</v>
+        <v>14.966</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.106</v>
+        <v>9.704000000000001</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.51</v>
+        <v>3.059</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.063</v>
+        <v>1.672</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>20.094</v>
+        <v>158.575</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.803</v>
+        <v>30.182</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.372</v>
+        <v>10.064</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.891</v>
+        <v>19.331</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.034</v>
+        <v>9.888999999999999</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.249</v>
+        <v>2.87</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.98</v>
+        <v>17.102</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.154</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.674</v>
+        <v>8.15</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.673999999999999</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>3.129</v>
+        <v>12.058</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>2.866</v>
+        <v>3.072</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>3.128</v>
+        <v>28.934</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.446</v>
+        <v>5.407</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.43</v>
+        <v>12.581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44783.55555555555</v>
+        <v>45133.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>8.378</v>
+        <v>22.949</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.509</v>
+        <v>16.738</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.079</v>
+        <v>1.98</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>14.339</v>
+        <v>50.14</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.533</v>
+        <v>40.24</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>6.151</v>
+        <v>17.938</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>17.934</v>
+        <v>67.355</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.029</v>
+        <v>27.923</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.822</v>
+        <v>12.189</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>6.739</v>
+        <v>17.951</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.887</v>
+        <v>20.031</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>5.954</v>
+        <v>21.301</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.822</v>
+        <v>5.797</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.133</v>
+        <v>18.046</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.395</v>
+        <v>25.513</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.409</v>
+        <v>15.45</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.432</v>
+        <v>1.506</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.119</v>
+        <v>1.215</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.056</v>
+        <v>267.368</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.571</v>
+        <v>50.439</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.54</v>
+        <v>16.657</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.726</v>
+        <v>33.575</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.228</v>
+        <v>17.551</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.74</v>
+        <v>2.987</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>9.162000000000001</v>
+        <v>33.521</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.507</v>
+        <v>14.713</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.691</v>
+        <v>13.16</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>4.446</v>
+        <v>15.5</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.214</v>
+        <v>20.882</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.133</v>
+        <v>1.198</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>15.336</v>
+        <v>61.623</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.672</v>
+        <v>9.279</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.159</v>
+        <v>20.825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44783.5625</v>
+        <v>45133.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.022</v>
+        <v>21.524</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.08</v>
+        <v>15.88</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.035</v>
+        <v>1.475</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>10.609</v>
+        <v>47.041</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>9.247999999999999</v>
+        <v>38.053</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>4.515</v>
+        <v>16.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>16.78</v>
+        <v>66.61</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.909</v>
+        <v>26.178</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.854</v>
+        <v>11.54</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.845</v>
+        <v>17.004</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>4.388</v>
+        <v>18.831</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.384</v>
+        <v>20.022</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.336</v>
+        <v>5.435</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.806</v>
+        <v>16.918</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>6.244</v>
+        <v>24.007</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>3.238</v>
+        <v>14.384</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.333</v>
+        <v>1.039</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.063</v>
+        <v>0.965</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>55.369</v>
+        <v>250.207</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>11.617</v>
+        <v>47.339</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.04</v>
+        <v>15.616</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>7.971</v>
+        <v>31.662</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.886</v>
+        <v>16.577</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.542</v>
+        <v>2.629</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>32.357</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>3.332</v>
+        <v>13.794</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.731</v>
+        <v>12.285</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.28</v>
+        <v>14.454</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.268</v>
+        <v>19.688</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.716</v>
+        <v>0.746</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.016</v>
+        <v>60.737</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.973</v>
+        <v>8.741</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>4.545</v>
+        <v>19.524</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44783.56944444445</v>
+        <v>45133.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0</v>
+        <v>12.02</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0</v>
+        <v>35.55</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0</v>
+        <v>28.75</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>12.73</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.183</v>
+        <v>51.67</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0</v>
+        <v>19.78</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0</v>
+        <v>8.73</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0</v>
+        <v>12.83</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0</v>
+        <v>14.24</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>15.15</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>4.11</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0</v>
+        <v>12.78</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0</v>
+        <v>18.14</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>187.25</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>0.129</v>
+        <v>35.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.116</v>
+        <v>23.94</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0</v>
+        <v>12.53</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.002</v>
+        <v>1.99</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.258</v>
+        <v>24.83</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0</v>
+        <v>10.42</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0</v>
+        <v>10.92</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0</v>
+        <v>14.89</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.383</v>
+        <v>47.09</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0</v>
+        <v>6.6</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44783.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>17.29</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>37.71</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>31.61</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>14.48</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>20.93</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>15.17</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>16.25</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>13.54</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>19.13</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>11.21</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>199.27</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>25.12</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>11.03</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>11.39</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>40.67</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>15.58</v>
+        <v>14.75</v>
       </c>
     </row>
   </sheetData>
